--- a/XPWLibrary/Documents/summary_pallet_delivery.xlsx
+++ b/XPWLibrary/Documents/summary_pallet_delivery.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\parzival\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Parzival Yuenyang\Source\Repos\kanomthai\xpw-project\XPWLibrary\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{00DB14F0-EB34-484C-AAA1-57B36B0B06C1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1081543-6AE9-4038-82B6-4301B9E72C4E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{DAC5AE0A-6164-45E9-B5A1-114CF76F557C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{DAC5AE0A-6164-45E9-B5A1-114CF76F557C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -120,16 +120,16 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -444,10 +444,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1269ADF-A596-4E55-87E8-B3716F62CAEA}">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -458,10 +458,9 @@
     <col min="4" max="4" width="19" style="4" customWidth="1"/>
     <col min="5" max="8" width="9.140625" style="4"/>
     <col min="9" max="9" width="16" style="4" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -476,12 +475,11 @@
         <v>9</v>
       </c>
       <c r="H1" s="2"/>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="2"/>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:9">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -490,10 +488,9 @@
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
+      <c r="I2" s="3"/>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:9">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -502,10 +499,9 @@
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
+      <c r="I3" s="3"/>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -529,9 +525,8 @@
       <c r="I4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J4" s="1"/>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:9">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -547,12 +542,12 @@
         <v>13</v>
       </c>
       <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="14">
+    <mergeCell ref="G3:H3"/>
     <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:J5"/>
+    <mergeCell ref="I4:I5"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="B4:B5"/>
@@ -560,15 +555,12 @@
     <mergeCell ref="D4:D5"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="A1:D3"/>
-    <mergeCell ref="I1:J1"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="G3:H3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="256" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>